--- a/Experiments/dimensionality_reduction_metrics/results/compiled_results/Stress/UMap2/geneRNASeq.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/compiled_results/Stress/UMap2/geneRNASeq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4667461273996375</v>
+        <v>0.466746127399636</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2679005757569375</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2380682266098698</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2498407623158637</v>
       </c>
     </row>
   </sheetData>
